--- a/xls/GMConfig.xlsx
+++ b/xls/GMConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4890" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="5820" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="@gm配置" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
   <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -25,98 +25,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>推荐好友数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>山寨发带</t>
   </si>
   <si>
     <t>山寨球衣</t>
-  </si>
-  <si>
-    <t>山寨球裤</t>
-  </si>
-  <si>
-    <t>山寨护腿板</t>
-  </si>
-  <si>
-    <t>山寨球鞋</t>
-  </si>
-  <si>
-    <t>优质发带</t>
-  </si>
-  <si>
-    <t>优质球衣</t>
-  </si>
-  <si>
-    <t>优质球裤</t>
-  </si>
-  <si>
-    <t>优质护腿板</t>
-  </si>
-  <si>
-    <t>优质球鞋</t>
-  </si>
-  <si>
-    <t>名牌发带</t>
-  </si>
-  <si>
-    <t>名牌球衣</t>
-  </si>
-  <si>
-    <t>名牌球裤</t>
-  </si>
-  <si>
-    <t>名牌护腿板</t>
-  </si>
-  <si>
-    <t>名牌球鞋</t>
-  </si>
-  <si>
-    <t>α元素发带</t>
-  </si>
-  <si>
-    <t>α元素球衣</t>
-  </si>
-  <si>
-    <t>α元素球裤</t>
-  </si>
-  <si>
-    <t>α元素护腿板</t>
-  </si>
-  <si>
-    <t>α元素球鞋</t>
-  </si>
-  <si>
-    <t>钛金发带</t>
-  </si>
-  <si>
-    <t>钛金球衣</t>
-  </si>
-  <si>
-    <t>钛金球裤</t>
-  </si>
-  <si>
-    <t>钛金护腿板</t>
-  </si>
-  <si>
-    <t>钛金球鞋</t>
-  </si>
-  <si>
-    <t>超纤维发带</t>
-  </si>
-  <si>
-    <t>超纤维球衣</t>
-  </si>
-  <si>
-    <t>超纤维球裤</t>
-  </si>
-  <si>
-    <t>超纤维护腿板</t>
-  </si>
-  <si>
-    <t>超纤维球鞋</t>
   </si>
   <si>
     <t>《足球周刊》</t>
@@ -715,6 +627,10 @@
   </si>
   <si>
     <t>gm配置:GMConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐好友数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1140,10 +1056,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C229"/>
+  <dimension ref="A1:C201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1162,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -1170,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1178,7 +1094,7 @@
         <v>101001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -1189,502 +1105,502 @@
         <v>101002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>101003</v>
+        <v>102007</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1">
-        <v>2</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>101004</v>
+        <v>102008</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>2</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>101005</v>
+        <v>102013</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1">
-        <v>2</v>
+        <v>999</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>101101</v>
+        <v>102014</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1">
-        <v>2</v>
+        <v>999</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>101102</v>
+        <v>102015</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1">
-        <v>2</v>
+        <v>999</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>101103</v>
+        <v>102016</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1">
-        <v>2</v>
+        <v>999</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>101104</v>
+        <v>102017</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1">
-        <v>2</v>
+        <v>999</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>101105</v>
+        <v>102018</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1">
-        <v>2</v>
+        <v>999</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>101201</v>
+        <v>102019</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1">
-        <v>2</v>
+        <v>999</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>101202</v>
+        <v>102020</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1">
-        <v>2</v>
+        <v>999</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>101203</v>
+        <v>102022</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="1">
-        <v>2</v>
+        <v>999</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>101204</v>
+        <v>102028</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="1">
-        <v>2</v>
+        <v>999</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>101205</v>
+        <v>102029</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="1">
-        <v>2</v>
+        <v>999</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>101301</v>
+        <v>102030</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="1">
-        <v>2</v>
+        <v>999</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>101302</v>
+        <v>102031</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="1">
-        <v>2</v>
+        <v>999</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>101303</v>
+        <v>102032</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="1">
-        <v>2</v>
+        <v>999</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>101304</v>
+        <v>103001</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>101305</v>
+        <v>103002</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>101401</v>
+        <v>103003</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>101402</v>
+        <v>103004</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>101403</v>
+        <v>103005</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>101404</v>
+        <v>103006</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>101405</v>
+        <v>103007</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>101501</v>
+        <v>103008</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>101502</v>
+        <v>103009</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>101503</v>
+        <v>103101</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>101504</v>
+        <v>103102</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>101505</v>
+        <v>103103</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>102007</v>
+        <v>103104</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C33" s="1">
-        <v>9999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>102008</v>
+        <v>103105</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C34" s="1">
-        <v>9999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>102013</v>
+        <v>103106</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C35" s="1">
-        <v>999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>102014</v>
+        <v>103107</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C36" s="1">
-        <v>999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>102015</v>
+        <v>103108</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C37" s="1">
-        <v>999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>102016</v>
+        <v>103109</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C38" s="1">
-        <v>999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>102017</v>
+        <v>103201</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C39" s="1">
-        <v>999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>102018</v>
+        <v>103202</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C40" s="1">
-        <v>999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>102019</v>
+        <v>103203</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C41" s="1">
-        <v>999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>102020</v>
+        <v>103204</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C42" s="1">
-        <v>999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>102022</v>
+        <v>103205</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C43" s="1">
-        <v>999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>102028</v>
+        <v>103206</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C44" s="1">
-        <v>999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>102029</v>
+        <v>103207</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C45" s="1">
-        <v>999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>102030</v>
+        <v>103208</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C46" s="1">
-        <v>999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>102031</v>
+        <v>103209</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C47" s="1">
-        <v>999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>102032</v>
+        <v>103301</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C48" s="1">
-        <v>999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>103001</v>
+        <v>103302</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C49" s="1">
         <v>5</v>
@@ -1692,10 +1608,10 @@
     </row>
     <row r="50" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>103002</v>
+        <v>103303</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C50" s="1">
         <v>5</v>
@@ -1703,10 +1619,10 @@
     </row>
     <row r="51" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>103003</v>
+        <v>103304</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C51" s="1">
         <v>5</v>
@@ -1714,10 +1630,10 @@
     </row>
     <row r="52" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>103004</v>
+        <v>103305</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C52" s="1">
         <v>5</v>
@@ -1725,10 +1641,10 @@
     </row>
     <row r="53" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>103005</v>
+        <v>103306</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C53" s="1">
         <v>5</v>
@@ -1736,10 +1652,10 @@
     </row>
     <row r="54" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>103006</v>
+        <v>103307</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C54" s="1">
         <v>5</v>
@@ -1747,10 +1663,10 @@
     </row>
     <row r="55" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>103007</v>
+        <v>103308</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C55" s="1">
         <v>5</v>
@@ -1758,10 +1674,10 @@
     </row>
     <row r="56" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>103008</v>
+        <v>103309</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C56" s="1">
         <v>5</v>
@@ -1769,10 +1685,10 @@
     </row>
     <row r="57" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>103009</v>
+        <v>103401</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C57" s="1">
         <v>5</v>
@@ -1780,10 +1696,10 @@
     </row>
     <row r="58" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>103101</v>
+        <v>103402</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C58" s="1">
         <v>5</v>
@@ -1791,10 +1707,10 @@
     </row>
     <row r="59" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>103102</v>
+        <v>103403</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C59" s="1">
         <v>5</v>
@@ -1802,10 +1718,10 @@
     </row>
     <row r="60" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>103103</v>
+        <v>103404</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C60" s="1">
         <v>5</v>
@@ -1813,10 +1729,10 @@
     </row>
     <row r="61" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>103104</v>
+        <v>103405</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C61" s="1">
         <v>5</v>
@@ -1824,10 +1740,10 @@
     </row>
     <row r="62" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>103105</v>
+        <v>103406</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C62" s="1">
         <v>5</v>
@@ -1835,10 +1751,10 @@
     </row>
     <row r="63" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>103106</v>
+        <v>103407</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C63" s="1">
         <v>5</v>
@@ -1846,10 +1762,10 @@
     </row>
     <row r="64" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>103107</v>
+        <v>103408</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C64" s="1">
         <v>5</v>
@@ -1857,10 +1773,10 @@
     </row>
     <row r="65" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>103108</v>
+        <v>103409</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C65" s="1">
         <v>5</v>
@@ -1868,10 +1784,10 @@
     </row>
     <row r="66" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>103109</v>
+        <v>103501</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C66" s="1">
         <v>5</v>
@@ -1879,10 +1795,10 @@
     </row>
     <row r="67" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>103201</v>
+        <v>103502</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C67" s="1">
         <v>5</v>
@@ -1890,10 +1806,10 @@
     </row>
     <row r="68" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>103202</v>
+        <v>103503</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C68" s="1">
         <v>5</v>
@@ -1901,10 +1817,10 @@
     </row>
     <row r="69" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>103203</v>
+        <v>103504</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C69" s="1">
         <v>5</v>
@@ -1912,10 +1828,10 @@
     </row>
     <row r="70" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>103204</v>
+        <v>103505</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C70" s="1">
         <v>5</v>
@@ -1923,10 +1839,10 @@
     </row>
     <row r="71" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>103205</v>
+        <v>103506</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C71" s="1">
         <v>5</v>
@@ -1934,10 +1850,10 @@
     </row>
     <row r="72" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>103206</v>
+        <v>103507</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C72" s="1">
         <v>5</v>
@@ -1945,10 +1861,10 @@
     </row>
     <row r="73" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>103207</v>
+        <v>103508</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C73" s="1">
         <v>5</v>
@@ -1956,10 +1872,10 @@
     </row>
     <row r="74" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>103208</v>
+        <v>103509</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C74" s="1">
         <v>5</v>
@@ -1967,10 +1883,10 @@
     </row>
     <row r="75" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>103209</v>
+        <v>103601</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C75" s="1">
         <v>5</v>
@@ -1978,10 +1894,10 @@
     </row>
     <row r="76" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>103301</v>
+        <v>103602</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C76" s="1">
         <v>5</v>
@@ -1989,10 +1905,10 @@
     </row>
     <row r="77" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>103302</v>
+        <v>103603</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C77" s="1">
         <v>5</v>
@@ -2000,10 +1916,10 @@
     </row>
     <row r="78" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>103303</v>
+        <v>103604</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C78" s="1">
         <v>5</v>
@@ -2011,10 +1927,10 @@
     </row>
     <row r="79" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>103304</v>
+        <v>103605</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C79" s="1">
         <v>5</v>
@@ -2022,10 +1938,10 @@
     </row>
     <row r="80" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>103305</v>
+        <v>103606</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C80" s="1">
         <v>5</v>
@@ -2033,10 +1949,10 @@
     </row>
     <row r="81" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>103306</v>
+        <v>103607</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C81" s="1">
         <v>5</v>
@@ -2044,10 +1960,10 @@
     </row>
     <row r="82" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <v>103307</v>
+        <v>103608</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C82" s="1">
         <v>5</v>
@@ -2055,10 +1971,10 @@
     </row>
     <row r="83" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>103308</v>
+        <v>103609</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C83" s="1">
         <v>5</v>
@@ -2066,10 +1982,10 @@
     </row>
     <row r="84" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <v>103309</v>
+        <v>103701</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C84" s="1">
         <v>5</v>
@@ -2077,10 +1993,10 @@
     </row>
     <row r="85" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <v>103401</v>
+        <v>103702</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C85" s="1">
         <v>5</v>
@@ -2088,10 +2004,10 @@
     </row>
     <row r="86" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <v>103402</v>
+        <v>103703</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C86" s="1">
         <v>5</v>
@@ -2099,10 +2015,10 @@
     </row>
     <row r="87" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <v>103403</v>
+        <v>103704</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C87" s="1">
         <v>5</v>
@@ -2110,10 +2026,10 @@
     </row>
     <row r="88" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <v>103404</v>
+        <v>103705</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C88" s="1">
         <v>5</v>
@@ -2121,10 +2037,10 @@
     </row>
     <row r="89" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <v>103405</v>
+        <v>103706</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C89" s="1">
         <v>5</v>
@@ -2132,10 +2048,10 @@
     </row>
     <row r="90" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <v>103406</v>
+        <v>103707</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C90" s="1">
         <v>5</v>
@@ -2143,10 +2059,10 @@
     </row>
     <row r="91" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <v>103407</v>
+        <v>103708</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C91" s="1">
         <v>5</v>
@@ -2154,10 +2070,10 @@
     </row>
     <row r="92" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
-        <v>103408</v>
+        <v>103709</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1">
         <v>5</v>
@@ -2165,10 +2081,10 @@
     </row>
     <row r="93" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
-        <v>103409</v>
+        <v>103801</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C93" s="1">
         <v>5</v>
@@ -2176,10 +2092,10 @@
     </row>
     <row r="94" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
-        <v>103501</v>
+        <v>103802</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C94" s="1">
         <v>5</v>
@@ -2187,10 +2103,10 @@
     </row>
     <row r="95" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
-        <v>103502</v>
+        <v>103803</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C95" s="1">
         <v>5</v>
@@ -2198,10 +2114,10 @@
     </row>
     <row r="96" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
-        <v>103503</v>
+        <v>103804</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C96" s="1">
         <v>5</v>
@@ -2209,10 +2125,10 @@
     </row>
     <row r="97" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
-        <v>103504</v>
+        <v>103805</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C97" s="1">
         <v>5</v>
@@ -2220,10 +2136,10 @@
     </row>
     <row r="98" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
-        <v>103505</v>
+        <v>103806</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C98" s="1">
         <v>5</v>
@@ -2231,10 +2147,10 @@
     </row>
     <row r="99" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
-        <v>103506</v>
+        <v>103807</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C99" s="1">
         <v>5</v>
@@ -2242,10 +2158,10 @@
     </row>
     <row r="100" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
-        <v>103507</v>
+        <v>103808</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C100" s="1">
         <v>5</v>
@@ -2253,10 +2169,10 @@
     </row>
     <row r="101" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
-        <v>103508</v>
+        <v>103809</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C101" s="1">
         <v>5</v>
@@ -2264,10 +2180,10 @@
     </row>
     <row r="102" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
-        <v>103509</v>
+        <v>103901</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C102" s="1">
         <v>5</v>
@@ -2275,10 +2191,10 @@
     </row>
     <row r="103" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
-        <v>103601</v>
+        <v>103902</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C103" s="1">
         <v>5</v>
@@ -2286,10 +2202,10 @@
     </row>
     <row r="104" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
-        <v>103602</v>
+        <v>103903</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C104" s="1">
         <v>5</v>
@@ -2297,10 +2213,10 @@
     </row>
     <row r="105" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
-        <v>103603</v>
+        <v>103904</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C105" s="1">
         <v>5</v>
@@ -2308,10 +2224,10 @@
     </row>
     <row r="106" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
-        <v>103604</v>
+        <v>103905</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C106" s="1">
         <v>5</v>
@@ -2319,10 +2235,10 @@
     </row>
     <row r="107" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
-        <v>103605</v>
+        <v>103906</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C107" s="1">
         <v>5</v>
@@ -2330,10 +2246,10 @@
     </row>
     <row r="108" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
-        <v>103606</v>
+        <v>103907</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C108" s="1">
         <v>5</v>
@@ -2341,10 +2257,10 @@
     </row>
     <row r="109" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
-        <v>103607</v>
+        <v>103908</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C109" s="1">
         <v>5</v>
@@ -2352,10 +2268,10 @@
     </row>
     <row r="110" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
-        <v>103608</v>
+        <v>103909</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C110" s="1">
         <v>5</v>
@@ -2363,483 +2279,483 @@
     </row>
     <row r="111" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
-        <v>103609</v>
+        <v>105001</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C111" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
-        <v>103701</v>
+        <v>105002</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C112" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
-        <v>103702</v>
+        <v>105003</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C113" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
-        <v>103703</v>
+        <v>105004</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C114" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
-        <v>103704</v>
+        <v>105005</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C115" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
-        <v>103705</v>
+        <v>105006</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C116" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
-        <v>103706</v>
+        <v>105007</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C117" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
-        <v>103707</v>
+        <v>105008</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C118" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
-        <v>103708</v>
+        <v>105009</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C119" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
-        <v>103709</v>
+        <v>105010</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C120" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
-        <v>103801</v>
+        <v>105011</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C121" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
-        <v>103802</v>
+        <v>105012</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C122" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
-        <v>103803</v>
+        <v>105013</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C123" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
-        <v>103804</v>
+        <v>105014</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C124" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
-        <v>103805</v>
+        <v>105015</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C125" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
-        <v>103806</v>
+        <v>105016</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C126" s="1">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="127" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
-        <v>103807</v>
+        <v>105017</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C127" s="1">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="128" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
-        <v>103808</v>
+        <v>105018</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C128" s="1">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="129" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
-        <v>103809</v>
+        <v>105019</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C129" s="1">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="130" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
-        <v>103901</v>
+        <v>105020</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C130" s="1">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="131" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
-        <v>103902</v>
+        <v>105021</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C131" s="1">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="132" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
-        <v>103903</v>
+        <v>106101</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C132" s="1">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="133" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
-        <v>103904</v>
+        <v>106102</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C133" s="1">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="134" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
-        <v>103905</v>
+        <v>106103</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C134" s="1">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="135" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
-        <v>103906</v>
+        <v>106104</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C135" s="1">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="136" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
-        <v>103907</v>
+        <v>106105</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C136" s="1">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="137" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
-        <v>103908</v>
+        <v>106106</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C137" s="1">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="138" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
-        <v>103909</v>
+        <v>106107</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C138" s="1">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="139" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
-        <v>105001</v>
+        <v>106108</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C139" s="1">
-        <v>2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="140" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
-        <v>105002</v>
+        <v>106109</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C140" s="1">
-        <v>2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="141" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
-        <v>105003</v>
+        <v>106110</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C141" s="1">
-        <v>2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="142" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
-        <v>105004</v>
+        <v>106111</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C142" s="1">
-        <v>2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="143" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
-        <v>105005</v>
+        <v>106112</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C143" s="1">
-        <v>2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="144" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
-        <v>105006</v>
+        <v>106113</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C144" s="1">
-        <v>2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="145" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
-        <v>105007</v>
+        <v>106114</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C145" s="1">
-        <v>2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="146" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
-        <v>105008</v>
+        <v>106115</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C146" s="1">
-        <v>2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="147" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
-        <v>105009</v>
+        <v>106116</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C147" s="1">
-        <v>2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="148" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
-        <v>105010</v>
+        <v>106117</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C148" s="1">
-        <v>2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="149" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
-        <v>105011</v>
+        <v>106118</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C149" s="1">
-        <v>2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="150" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
-        <v>105012</v>
+        <v>106119</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C150" s="1">
-        <v>2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="151" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
-        <v>105013</v>
+        <v>106120</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C151" s="1">
-        <v>2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="152" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
-        <v>105014</v>
+        <v>106121</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C152" s="1">
-        <v>2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="153" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
-        <v>105015</v>
+        <v>106201</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C153" s="1">
-        <v>2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="154" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
-        <v>105016</v>
+        <v>106202</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C154" s="1">
         <v>100</v>
@@ -2847,10 +2763,10 @@
     </row>
     <row r="155" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
-        <v>105017</v>
+        <v>106203</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C155" s="1">
         <v>100</v>
@@ -2858,10 +2774,10 @@
     </row>
     <row r="156" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
-        <v>105018</v>
+        <v>106204</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C156" s="1">
         <v>100</v>
@@ -2869,10 +2785,10 @@
     </row>
     <row r="157" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
-        <v>105019</v>
+        <v>106205</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C157" s="1">
         <v>100</v>
@@ -2880,10 +2796,10 @@
     </row>
     <row r="158" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
-        <v>105020</v>
+        <v>106206</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C158" s="1">
         <v>100</v>
@@ -2891,10 +2807,10 @@
     </row>
     <row r="159" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
-        <v>105021</v>
+        <v>106207</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C159" s="1">
         <v>100</v>
@@ -2902,10 +2818,10 @@
     </row>
     <row r="160" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
-        <v>106101</v>
+        <v>106208</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C160" s="1">
         <v>100</v>
@@ -2913,10 +2829,10 @@
     </row>
     <row r="161" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
-        <v>106102</v>
+        <v>106209</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C161" s="1">
         <v>100</v>
@@ -2924,10 +2840,10 @@
     </row>
     <row r="162" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
-        <v>106103</v>
+        <v>106210</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C162" s="1">
         <v>100</v>
@@ -2935,10 +2851,10 @@
     </row>
     <row r="163" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
-        <v>106104</v>
+        <v>106211</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C163" s="1">
         <v>100</v>
@@ -2946,10 +2862,10 @@
     </row>
     <row r="164" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
-        <v>106105</v>
+        <v>106212</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C164" s="1">
         <v>100</v>
@@ -2957,10 +2873,10 @@
     </row>
     <row r="165" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
-        <v>106106</v>
+        <v>106213</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C165" s="1">
         <v>100</v>
@@ -2968,10 +2884,10 @@
     </row>
     <row r="166" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
-        <v>106107</v>
+        <v>106214</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C166" s="1">
         <v>100</v>
@@ -2979,10 +2895,10 @@
     </row>
     <row r="167" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
-        <v>106108</v>
+        <v>106215</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C167" s="1">
         <v>100</v>
@@ -2990,10 +2906,10 @@
     </row>
     <row r="168" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
-        <v>106109</v>
+        <v>106216</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C168" s="1">
         <v>100</v>
@@ -3001,10 +2917,10 @@
     </row>
     <row r="169" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
-        <v>106110</v>
+        <v>106301</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C169" s="1">
         <v>100</v>
@@ -3012,10 +2928,10 @@
     </row>
     <row r="170" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
-        <v>106111</v>
+        <v>106302</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C170" s="1">
         <v>100</v>
@@ -3023,10 +2939,10 @@
     </row>
     <row r="171" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
-        <v>106112</v>
+        <v>106303</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C171" s="1">
         <v>100</v>
@@ -3034,10 +2950,10 @@
     </row>
     <row r="172" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
-        <v>106113</v>
+        <v>106304</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C172" s="1">
         <v>100</v>
@@ -3045,10 +2961,10 @@
     </row>
     <row r="173" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
-        <v>106114</v>
+        <v>106305</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C173" s="1">
         <v>100</v>
@@ -3056,10 +2972,10 @@
     </row>
     <row r="174" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
-        <v>106115</v>
+        <v>106306</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C174" s="1">
         <v>100</v>
@@ -3067,10 +2983,10 @@
     </row>
     <row r="175" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
-        <v>106116</v>
+        <v>106307</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C175" s="1">
         <v>100</v>
@@ -3078,10 +2994,10 @@
     </row>
     <row r="176" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
-        <v>106117</v>
+        <v>106308</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C176" s="1">
         <v>100</v>
@@ -3089,10 +3005,10 @@
     </row>
     <row r="177" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
-        <v>106118</v>
+        <v>106309</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C177" s="1">
         <v>100</v>
@@ -3100,10 +3016,10 @@
     </row>
     <row r="178" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
-        <v>106119</v>
+        <v>106310</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C178" s="1">
         <v>100</v>
@@ -3111,10 +3027,10 @@
     </row>
     <row r="179" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
-        <v>106120</v>
+        <v>106311</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C179" s="1">
         <v>100</v>
@@ -3122,10 +3038,10 @@
     </row>
     <row r="180" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
-        <v>106121</v>
+        <v>106312</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C180" s="1">
         <v>100</v>
@@ -3133,10 +3049,10 @@
     </row>
     <row r="181" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
-        <v>106201</v>
+        <v>106313</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C181" s="1">
         <v>100</v>
@@ -3144,10 +3060,10 @@
     </row>
     <row r="182" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
-        <v>106202</v>
+        <v>106401</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C182" s="1">
         <v>100</v>
@@ -3155,10 +3071,10 @@
     </row>
     <row r="183" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
-        <v>106203</v>
+        <v>106402</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C183" s="1">
         <v>100</v>
@@ -3166,10 +3082,10 @@
     </row>
     <row r="184" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
-        <v>106204</v>
+        <v>106403</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C184" s="1">
         <v>100</v>
@@ -3177,10 +3093,10 @@
     </row>
     <row r="185" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
-        <v>106205</v>
+        <v>106404</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C185" s="1">
         <v>100</v>
@@ -3188,10 +3104,10 @@
     </row>
     <row r="186" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
-        <v>106206</v>
+        <v>106405</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C186" s="1">
         <v>100</v>
@@ -3199,10 +3115,10 @@
     </row>
     <row r="187" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
-        <v>106207</v>
+        <v>106406</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C187" s="1">
         <v>100</v>
@@ -3210,10 +3126,10 @@
     </row>
     <row r="188" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
-        <v>106208</v>
+        <v>106407</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C188" s="1">
         <v>100</v>
@@ -3221,10 +3137,10 @@
     </row>
     <row r="189" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
-        <v>106209</v>
+        <v>106408</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C189" s="1">
         <v>100</v>
@@ -3232,10 +3148,10 @@
     </row>
     <row r="190" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
-        <v>106210</v>
+        <v>106409</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C190" s="1">
         <v>100</v>
@@ -3243,10 +3159,10 @@
     </row>
     <row r="191" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
-        <v>106211</v>
+        <v>106501</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C191" s="1">
         <v>100</v>
@@ -3254,10 +3170,10 @@
     </row>
     <row r="192" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
-        <v>106212</v>
+        <v>106502</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C192" s="1">
         <v>100</v>
@@ -3265,10 +3181,10 @@
     </row>
     <row r="193" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
-        <v>106213</v>
+        <v>106503</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C193" s="1">
         <v>100</v>
@@ -3276,10 +3192,10 @@
     </row>
     <row r="194" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
-        <v>106214</v>
+        <v>106504</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C194" s="1">
         <v>100</v>
@@ -3287,10 +3203,10 @@
     </row>
     <row r="195" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
-        <v>106215</v>
+        <v>106505</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C195" s="1">
         <v>100</v>
@@ -3298,10 +3214,10 @@
     </row>
     <row r="196" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
-        <v>106216</v>
+        <v>106506</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C196" s="1">
         <v>100</v>
@@ -3309,10 +3225,10 @@
     </row>
     <row r="197" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
-        <v>106301</v>
+        <v>106507</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C197" s="1">
         <v>100</v>
@@ -3320,10 +3236,10 @@
     </row>
     <row r="198" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
-        <v>106302</v>
+        <v>106508</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C198" s="1">
         <v>100</v>
@@ -3331,10 +3247,10 @@
     </row>
     <row r="199" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
-        <v>106303</v>
+        <v>106509</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C199" s="1">
         <v>100</v>
@@ -3342,10 +3258,10 @@
     </row>
     <row r="200" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
-        <v>106304</v>
+        <v>106510</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C200" s="1">
         <v>100</v>
@@ -3353,320 +3269,12 @@
     </row>
     <row r="201" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
-        <v>106305</v>
+        <v>106511</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C201" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A202" s="1">
-        <v>106306</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C202" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A203" s="1">
-        <v>106307</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C203" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A204" s="1">
-        <v>106308</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C204" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A205" s="1">
-        <v>106309</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C205" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A206" s="1">
-        <v>106310</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C206" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A207" s="1">
-        <v>106311</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C207" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A208" s="1">
-        <v>106312</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C208" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A209" s="1">
-        <v>106313</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C209" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A210" s="1">
-        <v>106401</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C210" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A211" s="1">
-        <v>106402</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C211" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A212" s="1">
-        <v>106403</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C212" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A213" s="1">
-        <v>106404</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C213" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A214" s="1">
-        <v>106405</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C214" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A215" s="1">
-        <v>106406</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C215" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A216" s="1">
-        <v>106407</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C216" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A217" s="1">
-        <v>106408</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C217" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A218" s="1">
-        <v>106409</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C218" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A219" s="1">
-        <v>106501</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C219" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A220" s="1">
-        <v>106502</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C220" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A221" s="1">
-        <v>106503</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C221" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A222" s="1">
-        <v>106504</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C222" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A223" s="1">
-        <v>106505</v>
-      </c>
-      <c r="B223" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C223" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A224" s="1">
-        <v>106506</v>
-      </c>
-      <c r="B224" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C224" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A225" s="1">
-        <v>106507</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C225" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A226" s="1">
-        <v>106508</v>
-      </c>
-      <c r="B226" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C226" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A227" s="1">
-        <v>106509</v>
-      </c>
-      <c r="B227" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C227" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A228" s="1">
-        <v>106510</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C228" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A229" s="1">
-        <v>106511</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C229" s="1">
         <v>100</v>
       </c>
     </row>
@@ -3692,7 +3300,7 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/xls/GMConfig.xlsx
+++ b/xls/GMConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5820" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="6750" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="@gm配置" sheetId="1" r:id="rId1"/>
@@ -1058,8 +1058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21:C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1295,7 +1295,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1306,7 +1306,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1317,7 +1317,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1328,7 +1328,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1339,7 +1339,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1350,7 +1350,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1361,7 +1361,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1372,7 +1372,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1383,7 +1383,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1394,7 +1394,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1405,7 +1405,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1416,7 +1416,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1427,7 +1427,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1438,7 +1438,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1449,7 +1449,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="36" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1460,7 +1460,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="37" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1471,7 +1471,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="38" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1482,7 +1482,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1493,7 +1493,7 @@
         <v>38</v>
       </c>
       <c r="C39" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="40" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1504,7 +1504,7 @@
         <v>39</v>
       </c>
       <c r="C40" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1515,7 +1515,7 @@
         <v>40</v>
       </c>
       <c r="C41" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="42" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1526,7 +1526,7 @@
         <v>41</v>
       </c>
       <c r="C42" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="43" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1537,7 +1537,7 @@
         <v>42</v>
       </c>
       <c r="C43" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="44" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1548,7 +1548,7 @@
         <v>43</v>
       </c>
       <c r="C44" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="45" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1559,7 +1559,7 @@
         <v>44</v>
       </c>
       <c r="C45" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="46" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1570,7 +1570,7 @@
         <v>45</v>
       </c>
       <c r="C46" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="47" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1581,7 +1581,7 @@
         <v>46</v>
       </c>
       <c r="C47" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="48" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1592,7 +1592,7 @@
         <v>47</v>
       </c>
       <c r="C48" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="49" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1603,7 +1603,7 @@
         <v>48</v>
       </c>
       <c r="C49" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="50" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1614,7 +1614,7 @@
         <v>49</v>
       </c>
       <c r="C50" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="51" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1625,7 +1625,7 @@
         <v>50</v>
       </c>
       <c r="C51" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="52" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1636,7 +1636,7 @@
         <v>51</v>
       </c>
       <c r="C52" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="53" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1647,7 +1647,7 @@
         <v>52</v>
       </c>
       <c r="C53" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="54" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1658,7 +1658,7 @@
         <v>53</v>
       </c>
       <c r="C54" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="55" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1669,7 +1669,7 @@
         <v>54</v>
       </c>
       <c r="C55" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="56" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1680,7 +1680,7 @@
         <v>55</v>
       </c>
       <c r="C56" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="57" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1691,7 +1691,7 @@
         <v>56</v>
       </c>
       <c r="C57" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="58" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1702,7 +1702,7 @@
         <v>57</v>
       </c>
       <c r="C58" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="59" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1713,7 +1713,7 @@
         <v>58</v>
       </c>
       <c r="C59" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="60" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1724,7 +1724,7 @@
         <v>59</v>
       </c>
       <c r="C60" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="61" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1735,7 +1735,7 @@
         <v>60</v>
       </c>
       <c r="C61" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="62" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1746,7 +1746,7 @@
         <v>61</v>
       </c>
       <c r="C62" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="63" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1757,7 +1757,7 @@
         <v>62</v>
       </c>
       <c r="C63" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="64" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1768,7 +1768,7 @@
         <v>63</v>
       </c>
       <c r="C64" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="65" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1779,7 +1779,7 @@
         <v>64</v>
       </c>
       <c r="C65" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="66" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1790,7 +1790,7 @@
         <v>65</v>
       </c>
       <c r="C66" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="67" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1801,7 +1801,7 @@
         <v>66</v>
       </c>
       <c r="C67" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="68" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1812,7 +1812,7 @@
         <v>67</v>
       </c>
       <c r="C68" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="69" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1823,7 +1823,7 @@
         <v>68</v>
       </c>
       <c r="C69" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="70" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1834,7 +1834,7 @@
         <v>69</v>
       </c>
       <c r="C70" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="71" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1845,7 +1845,7 @@
         <v>70</v>
       </c>
       <c r="C71" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="72" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1856,7 +1856,7 @@
         <v>71</v>
       </c>
       <c r="C72" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="73" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1867,7 +1867,7 @@
         <v>72</v>
       </c>
       <c r="C73" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="74" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1878,7 +1878,7 @@
         <v>73</v>
       </c>
       <c r="C74" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="75" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1889,7 +1889,7 @@
         <v>74</v>
       </c>
       <c r="C75" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="76" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1900,7 +1900,7 @@
         <v>75</v>
       </c>
       <c r="C76" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="77" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1911,7 +1911,7 @@
         <v>76</v>
       </c>
       <c r="C77" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="78" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1922,7 +1922,7 @@
         <v>77</v>
       </c>
       <c r="C78" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="79" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1933,7 +1933,7 @@
         <v>78</v>
       </c>
       <c r="C79" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="80" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1944,7 +1944,7 @@
         <v>79</v>
       </c>
       <c r="C80" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="81" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1955,7 +1955,7 @@
         <v>80</v>
       </c>
       <c r="C81" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="82" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1966,7 +1966,7 @@
         <v>81</v>
       </c>
       <c r="C82" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="83" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1977,7 +1977,7 @@
         <v>82</v>
       </c>
       <c r="C83" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="84" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1988,7 +1988,7 @@
         <v>83</v>
       </c>
       <c r="C84" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="85" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1999,7 +1999,7 @@
         <v>84</v>
       </c>
       <c r="C85" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="86" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -2010,7 +2010,7 @@
         <v>85</v>
       </c>
       <c r="C86" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="87" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -2021,7 +2021,7 @@
         <v>86</v>
       </c>
       <c r="C87" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="88" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -2032,7 +2032,7 @@
         <v>87</v>
       </c>
       <c r="C88" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="89" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -2043,7 +2043,7 @@
         <v>88</v>
       </c>
       <c r="C89" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="90" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -2054,7 +2054,7 @@
         <v>89</v>
       </c>
       <c r="C90" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="91" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -2065,7 +2065,7 @@
         <v>90</v>
       </c>
       <c r="C91" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="92" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -2076,7 +2076,7 @@
         <v>91</v>
       </c>
       <c r="C92" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="93" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -2087,7 +2087,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="94" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -2098,7 +2098,7 @@
         <v>93</v>
       </c>
       <c r="C94" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="95" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -2109,7 +2109,7 @@
         <v>94</v>
       </c>
       <c r="C95" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="96" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -2120,7 +2120,7 @@
         <v>95</v>
       </c>
       <c r="C96" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="97" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -2131,7 +2131,7 @@
         <v>96</v>
       </c>
       <c r="C97" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="98" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -2142,7 +2142,7 @@
         <v>97</v>
       </c>
       <c r="C98" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="99" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -2153,7 +2153,7 @@
         <v>98</v>
       </c>
       <c r="C99" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="100" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -2164,7 +2164,7 @@
         <v>99</v>
       </c>
       <c r="C100" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="101" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -2175,7 +2175,7 @@
         <v>100</v>
       </c>
       <c r="C101" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="102" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -2186,7 +2186,7 @@
         <v>101</v>
       </c>
       <c r="C102" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="103" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -2197,7 +2197,7 @@
         <v>102</v>
       </c>
       <c r="C103" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="104" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -2208,7 +2208,7 @@
         <v>103</v>
       </c>
       <c r="C104" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="105" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -2219,7 +2219,7 @@
         <v>104</v>
       </c>
       <c r="C105" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="106" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -2230,7 +2230,7 @@
         <v>105</v>
       </c>
       <c r="C106" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="107" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -2241,7 +2241,7 @@
         <v>106</v>
       </c>
       <c r="C107" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="108" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -2252,7 +2252,7 @@
         <v>107</v>
       </c>
       <c r="C108" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="109" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -2263,7 +2263,7 @@
         <v>108</v>
       </c>
       <c r="C109" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="110" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -2274,7 +2274,7 @@
         <v>109</v>
       </c>
       <c r="C110" s="1">
-        <v>5</v>
+        <v>999</v>
       </c>
     </row>
     <row r="111" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">

--- a/xls/GMConfig.xlsx
+++ b/xls/GMConfig.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="208">
   <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -631,6 +631,22 @@
   </si>
   <si>
     <t>推荐好友数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阵法残本-前锋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阵法残本-中场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阵法残本-后卫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阵法残本-门将</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -690,74 +706,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -777,7 +725,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1056,10 +1004,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C201"/>
+  <dimension ref="A1:C210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:C110"/>
+    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
+      <selection activeCell="B209" sqref="B209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2285,7 +2233,7 @@
         <v>110</v>
       </c>
       <c r="C111" s="1">
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="112" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -2296,7 +2244,7 @@
         <v>111</v>
       </c>
       <c r="C112" s="1">
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="113" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -2307,7 +2255,7 @@
         <v>112</v>
       </c>
       <c r="C113" s="1">
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="114" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -2318,7 +2266,7 @@
         <v>113</v>
       </c>
       <c r="C114" s="1">
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="115" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -2329,7 +2277,7 @@
         <v>114</v>
       </c>
       <c r="C115" s="1">
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="116" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -2340,7 +2288,7 @@
         <v>115</v>
       </c>
       <c r="C116" s="1">
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="117" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -2351,7 +2299,7 @@
         <v>116</v>
       </c>
       <c r="C117" s="1">
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="118" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -2362,7 +2310,7 @@
         <v>117</v>
       </c>
       <c r="C118" s="1">
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="119" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -2373,7 +2321,7 @@
         <v>118</v>
       </c>
       <c r="C119" s="1">
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="120" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -2384,7 +2332,7 @@
         <v>119</v>
       </c>
       <c r="C120" s="1">
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="121" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -2395,7 +2343,7 @@
         <v>120</v>
       </c>
       <c r="C121" s="1">
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="122" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -2406,7 +2354,7 @@
         <v>121</v>
       </c>
       <c r="C122" s="1">
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="123" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -2417,7 +2365,7 @@
         <v>122</v>
       </c>
       <c r="C123" s="1">
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="124" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -2428,7 +2376,7 @@
         <v>123</v>
       </c>
       <c r="C124" s="1">
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="125" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -2439,7 +2387,7 @@
         <v>124</v>
       </c>
       <c r="C125" s="1">
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="126" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -3276,6 +3224,90 @@
       </c>
       <c r="C201" s="1">
         <v>100</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A202">
+        <v>102033</v>
+      </c>
+      <c r="C202">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>102037</v>
+      </c>
+      <c r="C203" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>102035</v>
+      </c>
+      <c r="C204" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>102036</v>
+      </c>
+      <c r="C205" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A206">
+        <v>102009</v>
+      </c>
+      <c r="B206" t="s">
+        <v>204</v>
+      </c>
+      <c r="C206">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>102010</v>
+      </c>
+      <c r="B207" t="s">
+        <v>205</v>
+      </c>
+      <c r="C207" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>102011</v>
+      </c>
+      <c r="B208" t="s">
+        <v>206</v>
+      </c>
+      <c r="C208" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>102012</v>
+      </c>
+      <c r="B209" t="s">
+        <v>207</v>
+      </c>
+      <c r="C209" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>101205</v>
+      </c>
+      <c r="C210" s="1">
+        <v>9999</v>
       </c>
     </row>
   </sheetData>
@@ -3290,7 +3322,7 @@
   <dimension ref="A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/xls/GMConfig.xlsx
+++ b/xls/GMConfig.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,276 +79,6 @@
     <t>超级经验书</t>
   </si>
   <si>
-    <t>1级射门晶体</t>
-  </si>
-  <si>
-    <t>2级射门晶体</t>
-  </si>
-  <si>
-    <t>3级射门晶体</t>
-  </si>
-  <si>
-    <t>4级射门晶体</t>
-  </si>
-  <si>
-    <t>5级射门晶体</t>
-  </si>
-  <si>
-    <t>6级射门晶体</t>
-  </si>
-  <si>
-    <t>7级射门晶体</t>
-  </si>
-  <si>
-    <t>8级射门晶体</t>
-  </si>
-  <si>
-    <t>9级射门晶体</t>
-  </si>
-  <si>
-    <t>1级传球晶体</t>
-  </si>
-  <si>
-    <t>2级传球晶体</t>
-  </si>
-  <si>
-    <t>3级传球晶体</t>
-  </si>
-  <si>
-    <t>4级传球晶体</t>
-  </si>
-  <si>
-    <t>5级传球晶体</t>
-  </si>
-  <si>
-    <t>6级传球晶体</t>
-  </si>
-  <si>
-    <t>7级传球晶体</t>
-  </si>
-  <si>
-    <t>8级传球晶体</t>
-  </si>
-  <si>
-    <t>9级传球晶体</t>
-  </si>
-  <si>
-    <t>1级盘带晶体</t>
-  </si>
-  <si>
-    <t>2级盘带晶体</t>
-  </si>
-  <si>
-    <t>3级盘带晶体</t>
-  </si>
-  <si>
-    <t>4级盘带晶体</t>
-  </si>
-  <si>
-    <t>5级盘带晶体</t>
-  </si>
-  <si>
-    <t>6级盘带晶体</t>
-  </si>
-  <si>
-    <t>7级盘带晶体</t>
-  </si>
-  <si>
-    <t>8级盘带晶体</t>
-  </si>
-  <si>
-    <t>9级盘带晶体</t>
-  </si>
-  <si>
-    <t>1级防守晶体</t>
-  </si>
-  <si>
-    <t>2级防守晶体</t>
-  </si>
-  <si>
-    <t>3级防守晶体</t>
-  </si>
-  <si>
-    <t>4级防守晶体</t>
-  </si>
-  <si>
-    <t>5级防守晶体</t>
-  </si>
-  <si>
-    <t>6级防守晶体</t>
-  </si>
-  <si>
-    <t>7级防守晶体</t>
-  </si>
-  <si>
-    <t>8级防守晶体</t>
-  </si>
-  <si>
-    <t>9级防守晶体</t>
-  </si>
-  <si>
-    <t>1级抢断晶体</t>
-  </si>
-  <si>
-    <t>2级抢断晶体</t>
-  </si>
-  <si>
-    <t>3级抢断晶体</t>
-  </si>
-  <si>
-    <t>4级抢断晶体</t>
-  </si>
-  <si>
-    <t>5级抢断晶体</t>
-  </si>
-  <si>
-    <t>6级抢断晶体</t>
-  </si>
-  <si>
-    <t>7级抢断晶体</t>
-  </si>
-  <si>
-    <t>8级抢断晶体</t>
-  </si>
-  <si>
-    <t>9级抢断晶体</t>
-  </si>
-  <si>
-    <t>1级拦截晶体</t>
-  </si>
-  <si>
-    <t>2级拦截晶体</t>
-  </si>
-  <si>
-    <t>3级拦截晶体</t>
-  </si>
-  <si>
-    <t>4级拦截晶体</t>
-  </si>
-  <si>
-    <t>5级拦截晶体</t>
-  </si>
-  <si>
-    <t>6级拦截晶体</t>
-  </si>
-  <si>
-    <t>7级拦截晶体</t>
-  </si>
-  <si>
-    <t>8级拦截晶体</t>
-  </si>
-  <si>
-    <t>9级拦截晶体</t>
-  </si>
-  <si>
-    <t>1级守门晶体</t>
-  </si>
-  <si>
-    <t>2级守门晶体</t>
-  </si>
-  <si>
-    <t>3级守门晶体</t>
-  </si>
-  <si>
-    <t>4级守门晶体</t>
-  </si>
-  <si>
-    <t>5级守门晶体</t>
-  </si>
-  <si>
-    <t>6级守门晶体</t>
-  </si>
-  <si>
-    <t>7级守门晶体</t>
-  </si>
-  <si>
-    <t>8级守门晶体</t>
-  </si>
-  <si>
-    <t>9级守门晶体</t>
-  </si>
-  <si>
-    <t>1级控球晶体</t>
-  </si>
-  <si>
-    <t>2级控球晶体</t>
-  </si>
-  <si>
-    <t>3级控球晶体</t>
-  </si>
-  <si>
-    <t>4级控球晶体</t>
-  </si>
-  <si>
-    <t>5级控球晶体</t>
-  </si>
-  <si>
-    <t>6级控球晶体</t>
-  </si>
-  <si>
-    <t>7级控球晶体</t>
-  </si>
-  <si>
-    <t>8级控球晶体</t>
-  </si>
-  <si>
-    <t>9级控球晶体</t>
-  </si>
-  <si>
-    <t>1级身体晶体</t>
-  </si>
-  <si>
-    <t>2级身体晶体</t>
-  </si>
-  <si>
-    <t>3级身体晶体</t>
-  </si>
-  <si>
-    <t>4级身体晶体</t>
-  </si>
-  <si>
-    <t>5级身体晶体</t>
-  </si>
-  <si>
-    <t>6级身体晶体</t>
-  </si>
-  <si>
-    <t>7级身体晶体</t>
-  </si>
-  <si>
-    <t>8级身体晶体</t>
-  </si>
-  <si>
-    <t>9级身体晶体</t>
-  </si>
-  <si>
-    <t>1级技术晶体</t>
-  </si>
-  <si>
-    <t>2级技术晶体</t>
-  </si>
-  <si>
-    <t>3级技术晶体</t>
-  </si>
-  <si>
-    <t>4级技术晶体</t>
-  </si>
-  <si>
-    <t>5级技术晶体</t>
-  </si>
-  <si>
-    <t>6级技术晶体</t>
-  </si>
-  <si>
-    <t>7级技术晶体</t>
-  </si>
-  <si>
-    <t>8级技术晶体</t>
-  </si>
-  <si>
-    <t>9级技术晶体</t>
-  </si>
-  <si>
     <t>α元素发带图纸</t>
   </si>
   <si>
@@ -647,6 +377,14 @@
   </si>
   <si>
     <t>阵法残本-门将</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行动牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国际行动牌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -654,7 +392,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -675,6 +413,14 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11.3"/>
+      <color rgb="FFAE81FF"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -697,9 +443,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1004,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C210"/>
+  <dimension ref="A1:C125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="B209" sqref="B209"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1026,7 +775,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>201</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -1034,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>203</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1237,2077 +986,1133 @@
     </row>
     <row r="21" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>103001</v>
+        <v>105001</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="1">
-        <v>999</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>103002</v>
+        <v>105002</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="1">
-        <v>999</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>103003</v>
+        <v>105003</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="1">
-        <v>999</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>103004</v>
+        <v>105004</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="1">
-        <v>999</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>103005</v>
+        <v>105005</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="1">
-        <v>999</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>103006</v>
+        <v>105006</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C26" s="1">
-        <v>999</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>103007</v>
+        <v>105007</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="1">
-        <v>999</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>103008</v>
+        <v>105008</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="1">
-        <v>999</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>103009</v>
+        <v>105009</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C29" s="1">
-        <v>999</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>103101</v>
+        <v>105010</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C30" s="1">
-        <v>999</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>103102</v>
+        <v>105011</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C31" s="1">
-        <v>999</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>103103</v>
+        <v>105012</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C32" s="1">
-        <v>999</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>103104</v>
+        <v>105013</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C33" s="1">
-        <v>999</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>103105</v>
+        <v>105014</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C34" s="1">
-        <v>999</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>103106</v>
+        <v>105015</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C35" s="1">
-        <v>999</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>103107</v>
+        <v>105016</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C36" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>103108</v>
+        <v>105017</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C37" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>103109</v>
+        <v>105018</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C38" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>103201</v>
+        <v>105019</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C39" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>103202</v>
+        <v>105020</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C40" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>103203</v>
+        <v>105021</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C41" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>103204</v>
+        <v>106101</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C42" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>103205</v>
+        <v>106102</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C43" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>103206</v>
+        <v>106103</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C44" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>103207</v>
+        <v>106104</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C45" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>103208</v>
+        <v>106105</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C46" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>103209</v>
+        <v>106106</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C47" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>103301</v>
+        <v>106107</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C48" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>103302</v>
+        <v>106108</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C49" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>103303</v>
+        <v>106109</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C50" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>103304</v>
+        <v>106110</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C51" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>103305</v>
+        <v>106111</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C52" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>103306</v>
+        <v>106112</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C53" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>103307</v>
+        <v>106113</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C54" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>103308</v>
+        <v>106114</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C55" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>103309</v>
+        <v>106115</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C56" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>103401</v>
+        <v>106116</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C57" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>103402</v>
+        <v>106117</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C58" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>103403</v>
+        <v>106118</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C59" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>103404</v>
+        <v>106119</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C60" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>103405</v>
+        <v>106120</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C61" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>103406</v>
+        <v>106121</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C62" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>103407</v>
+        <v>106201</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C63" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>103408</v>
+        <v>106202</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C64" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>103409</v>
+        <v>106203</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C65" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>103501</v>
+        <v>106204</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C66" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>103502</v>
+        <v>106205</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C67" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>103503</v>
+        <v>106206</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C68" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>103504</v>
+        <v>106207</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C69" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>103505</v>
+        <v>106208</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C70" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="71" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>103506</v>
+        <v>106209</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C71" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>103507</v>
+        <v>106210</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C72" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>103508</v>
+        <v>106211</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C73" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="74" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>103509</v>
+        <v>106212</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C74" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="75" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>103601</v>
+        <v>106213</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C75" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>103602</v>
+        <v>106214</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C76" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="77" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>103603</v>
+        <v>106215</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C77" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="78" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>103604</v>
+        <v>106216</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C78" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>103605</v>
+        <v>106301</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C79" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>103606</v>
+        <v>106302</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C80" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>103607</v>
+        <v>106303</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C81" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <v>103608</v>
+        <v>106304</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>81</v>
       </c>
       <c r="C82" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>103609</v>
+        <v>106305</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C83" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <v>103701</v>
+        <v>106306</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C84" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <v>103702</v>
+        <v>106307</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C85" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <v>103703</v>
+        <v>106308</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>85</v>
       </c>
       <c r="C86" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <v>103704</v>
+        <v>106309</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C87" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <v>103705</v>
+        <v>106310</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C88" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <v>103706</v>
+        <v>106311</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C89" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <v>103707</v>
+        <v>106312</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C90" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="91" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <v>103708</v>
+        <v>106313</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C91" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="92" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
-        <v>103709</v>
+        <v>106401</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C92" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
-        <v>103801</v>
+        <v>106402</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C93" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
-        <v>103802</v>
+        <v>106403</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C94" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="95" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
-        <v>103803</v>
+        <v>106404</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C95" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="96" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
-        <v>103804</v>
+        <v>106405</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C96" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="97" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
-        <v>103805</v>
+        <v>106406</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C97" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="98" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
-        <v>103806</v>
+        <v>106407</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C98" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
-        <v>103807</v>
+        <v>106408</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C99" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="100" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
-        <v>103808</v>
+        <v>106409</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C100" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
-        <v>103809</v>
+        <v>106501</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C101" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
-        <v>103901</v>
+        <v>106502</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>101</v>
       </c>
       <c r="C102" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
-        <v>103902</v>
+        <v>106503</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C103" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="104" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
-        <v>103903</v>
+        <v>106504</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C104" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="105" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
-        <v>103904</v>
+        <v>106505</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C105" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="106" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
-        <v>103905</v>
+        <v>106506</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C106" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="107" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
-        <v>103906</v>
+        <v>106507</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C107" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="108" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
-        <v>103907</v>
+        <v>106508</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>107</v>
       </c>
       <c r="C108" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="109" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
-        <v>103908</v>
+        <v>106509</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>108</v>
       </c>
       <c r="C109" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="110" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
-        <v>103909</v>
+        <v>106510</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>109</v>
       </c>
       <c r="C110" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="111" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
-        <v>105001</v>
+        <v>106511</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C111" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A112" s="1">
-        <v>105002</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C112" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A113" s="1">
-        <v>105003</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>112</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A112">
+        <v>102033</v>
+      </c>
+      <c r="C112">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>102037</v>
       </c>
       <c r="C113" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A114" s="1">
-        <v>105004</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>113</v>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>102035</v>
       </c>
       <c r="C114" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A115" s="1">
-        <v>105005</v>
-      </c>
-      <c r="B115" s="1" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>102036</v>
+      </c>
+      <c r="C115" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A116">
+        <v>102009</v>
+      </c>
+      <c r="B116" t="s">
         <v>114</v>
       </c>
-      <c r="C115" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A116" s="1">
-        <v>105006</v>
-      </c>
-      <c r="B116" s="1" t="s">
+      <c r="C116">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>102010</v>
+      </c>
+      <c r="B117" t="s">
         <v>115</v>
       </c>
-      <c r="C116" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A117" s="1">
-        <v>105007</v>
-      </c>
-      <c r="B117" s="1" t="s">
+      <c r="C117" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>102011</v>
+      </c>
+      <c r="B118" t="s">
         <v>116</v>
       </c>
-      <c r="C117" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A118" s="1">
-        <v>105008</v>
-      </c>
-      <c r="B118" s="1" t="s">
+      <c r="C118" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>102012</v>
+      </c>
+      <c r="B119" t="s">
         <v>117</v>
       </c>
-      <c r="C118" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A119" s="1">
-        <v>105009</v>
-      </c>
-      <c r="B119" s="1" t="s">
+      <c r="C119" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>101205</v>
+      </c>
+      <c r="C120" s="1">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A121" s="2">
+        <v>102040</v>
+      </c>
+      <c r="C121">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A122" s="2">
+        <v>102041</v>
+      </c>
+      <c r="C122">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A123" s="2">
+        <v>102042</v>
+      </c>
+      <c r="C123">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A124" s="2">
+        <v>102038</v>
+      </c>
+      <c r="B124" t="s">
         <v>118</v>
       </c>
-      <c r="C119" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A120" s="1">
-        <v>105010</v>
-      </c>
-      <c r="B120" s="1" t="s">
+      <c r="C124">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A125" s="2">
+        <v>102039</v>
+      </c>
+      <c r="B125" t="s">
         <v>119</v>
       </c>
-      <c r="C120" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A121" s="1">
-        <v>105011</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C121" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A122" s="1">
-        <v>105012</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C122" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A123" s="1">
-        <v>105013</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C123" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A124" s="1">
-        <v>105014</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C124" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A125" s="1">
-        <v>105015</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C125" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A126" s="1">
-        <v>105016</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C126" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A127" s="1">
-        <v>105017</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C127" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A128" s="1">
-        <v>105018</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C128" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A129" s="1">
-        <v>105019</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C129" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A130" s="1">
-        <v>105020</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C130" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A131" s="1">
-        <v>105021</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C131" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A132" s="1">
-        <v>106101</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C132" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A133" s="1">
-        <v>106102</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C133" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A134" s="1">
-        <v>106103</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C134" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A135" s="1">
-        <v>106104</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C135" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A136" s="1">
-        <v>106105</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C136" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A137" s="1">
-        <v>106106</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C137" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A138" s="1">
-        <v>106107</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C138" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A139" s="1">
-        <v>106108</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C139" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A140" s="1">
-        <v>106109</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C140" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A141" s="1">
-        <v>106110</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C141" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A142" s="1">
-        <v>106111</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C142" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A143" s="1">
-        <v>106112</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C143" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A144" s="1">
-        <v>106113</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C144" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A145" s="1">
-        <v>106114</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C145" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A146" s="1">
-        <v>106115</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C146" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A147" s="1">
-        <v>106116</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C147" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A148" s="1">
-        <v>106117</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C148" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A149" s="1">
-        <v>106118</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C149" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A150" s="1">
-        <v>106119</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C150" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A151" s="1">
-        <v>106120</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C151" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A152" s="1">
-        <v>106121</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C152" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A153" s="1">
-        <v>106201</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C153" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A154" s="1">
-        <v>106202</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C154" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A155" s="1">
-        <v>106203</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C155" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A156" s="1">
-        <v>106204</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C156" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A157" s="1">
-        <v>106205</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C157" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A158" s="1">
-        <v>106206</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C158" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A159" s="1">
-        <v>106207</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C159" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A160" s="1">
-        <v>106208</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C160" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A161" s="1">
-        <v>106209</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C161" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A162" s="1">
-        <v>106210</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C162" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A163" s="1">
-        <v>106211</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C163" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A164" s="1">
-        <v>106212</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C164" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A165" s="1">
-        <v>106213</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C165" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A166" s="1">
-        <v>106214</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C166" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A167" s="1">
-        <v>106215</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C167" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A168" s="1">
-        <v>106216</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C168" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A169" s="1">
-        <v>106301</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C169" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A170" s="1">
-        <v>106302</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C170" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A171" s="1">
-        <v>106303</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C171" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A172" s="1">
-        <v>106304</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C172" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A173" s="1">
-        <v>106305</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C173" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A174" s="1">
-        <v>106306</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C174" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A175" s="1">
-        <v>106307</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C175" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A176" s="1">
-        <v>106308</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C176" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A177" s="1">
-        <v>106309</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C177" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A178" s="1">
-        <v>106310</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C178" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A179" s="1">
-        <v>106311</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C179" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A180" s="1">
-        <v>106312</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C180" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A181" s="1">
-        <v>106313</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C181" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A182" s="1">
-        <v>106401</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C182" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A183" s="1">
-        <v>106402</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C183" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A184" s="1">
-        <v>106403</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C184" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A185" s="1">
-        <v>106404</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C185" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A186" s="1">
-        <v>106405</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C186" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A187" s="1">
-        <v>106406</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C187" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A188" s="1">
-        <v>106407</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C188" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A189" s="1">
-        <v>106408</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C189" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A190" s="1">
-        <v>106409</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C190" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A191" s="1">
-        <v>106501</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C191" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A192" s="1">
-        <v>106502</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C192" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A193" s="1">
-        <v>106503</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C193" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A194" s="1">
-        <v>106504</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C194" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A195" s="1">
-        <v>106505</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C195" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A196" s="1">
-        <v>106506</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C196" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A197" s="1">
-        <v>106507</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C197" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A198" s="1">
-        <v>106508</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C198" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A199" s="1">
-        <v>106509</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C199" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A200" s="1">
-        <v>106510</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C200" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A201" s="1">
-        <v>106511</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C201" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A202">
-        <v>102033</v>
-      </c>
-      <c r="C202">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A203">
-        <v>102037</v>
-      </c>
-      <c r="C203" s="1">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A204">
-        <v>102035</v>
-      </c>
-      <c r="C204" s="1">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A205">
-        <v>102036</v>
-      </c>
-      <c r="C205" s="1">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A206">
-        <v>102009</v>
-      </c>
-      <c r="B206" t="s">
-        <v>204</v>
-      </c>
-      <c r="C206">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A207">
-        <v>102010</v>
-      </c>
-      <c r="B207" t="s">
-        <v>205</v>
-      </c>
-      <c r="C207" s="1">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A208">
-        <v>102011</v>
-      </c>
-      <c r="B208" t="s">
-        <v>206</v>
-      </c>
-      <c r="C208" s="1">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A209">
-        <v>102012</v>
-      </c>
-      <c r="B209" t="s">
-        <v>207</v>
-      </c>
-      <c r="C209" s="1">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A210">
-        <v>101205</v>
-      </c>
-      <c r="C210" s="1">
-        <v>9999</v>
+      <c r="C125">
+        <v>999</v>
       </c>
     </row>
   </sheetData>
@@ -3332,7 +2137,7 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>202</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
